--- a/Datos/prueba.xlsx
+++ b/Datos/prueba.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3A641F-7C5B-40A9-8E66-8FC42E2B5567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FA71B3-C498-4218-B102-7B017FB49BEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="49">
   <si>
     <t>Días</t>
   </si>
@@ -33,10 +33,145 @@
     <t>Fallecimientos</t>
   </si>
   <si>
-    <t>Predicciones</t>
-  </si>
-  <si>
-    <t>Error</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>04/03/2020</t>
+  </si>
+  <si>
+    <t>05/03/2020</t>
+  </si>
+  <si>
+    <t>06/03/2020</t>
+  </si>
+  <si>
+    <t>07/03/2020</t>
+  </si>
+  <si>
+    <t>08/03/2020</t>
+  </si>
+  <si>
+    <t>09/03/2020</t>
+  </si>
+  <si>
+    <t>10/03/2020</t>
+  </si>
+  <si>
+    <t>11/03/2020</t>
+  </si>
+  <si>
+    <t>12/03/2020</t>
+  </si>
+  <si>
+    <t>13/03/2020</t>
+  </si>
+  <si>
+    <t>14/03/2020</t>
+  </si>
+  <si>
+    <t>15/03/2020</t>
+  </si>
+  <si>
+    <t>16/03/2020</t>
+  </si>
+  <si>
+    <t>17/03/2020</t>
+  </si>
+  <si>
+    <t>18/03/2020</t>
+  </si>
+  <si>
+    <t>19/03/2020</t>
+  </si>
+  <si>
+    <t>20/03/2020</t>
+  </si>
+  <si>
+    <t>21/03/2020</t>
+  </si>
+  <si>
+    <t>22/03/2020</t>
+  </si>
+  <si>
+    <t>23/03/2020</t>
+  </si>
+  <si>
+    <t>24/03/2020</t>
+  </si>
+  <si>
+    <t>25/03/2020</t>
+  </si>
+  <si>
+    <t>26/03/2020</t>
+  </si>
+  <si>
+    <t>27/03/2020</t>
+  </si>
+  <si>
+    <t>28/03/2020</t>
+  </si>
+  <si>
+    <t>29/03/2020</t>
+  </si>
+  <si>
+    <t>30/03/2020</t>
+  </si>
+  <si>
+    <t>31/03/2020</t>
+  </si>
+  <si>
+    <t>01/04/2020</t>
+  </si>
+  <si>
+    <t>02/04/2020</t>
+  </si>
+  <si>
+    <t>03/04/2020</t>
+  </si>
+  <si>
+    <t>04/04/2020</t>
+  </si>
+  <si>
+    <t>05/04/2020</t>
+  </si>
+  <si>
+    <t>06/04/2020</t>
+  </si>
+  <si>
+    <t>07/04/2020</t>
+  </si>
+  <si>
+    <t>08/04/2020</t>
+  </si>
+  <si>
+    <t>09/04/2020</t>
+  </si>
+  <si>
+    <t>10/04/2020</t>
+  </si>
+  <si>
+    <t>11/04/2020</t>
+  </si>
+  <si>
+    <t>13/04/2020</t>
+  </si>
+  <si>
+    <t>14/04/2020</t>
+  </si>
+  <si>
+    <t>15/04/2020</t>
+  </si>
+  <si>
+    <t>16/04/2020</t>
+  </si>
+  <si>
+    <t>03/03/2020</t>
+  </si>
+  <si>
+    <t>Predicción 11 Abril</t>
+  </si>
+  <si>
+    <t>Predicción 12 Abril</t>
   </si>
 </sst>
 </file>
@@ -52,11 +187,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,17 +210,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -425,13 +565,15 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -442,364 +584,627 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>8</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>17</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
         <v>35</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
         <v>47</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>84</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
         <v>120</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
         <v>136</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
         <v>288</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
         <v>309</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
         <v>491</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
+      <c r="A16" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
         <v>598</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
         <v>767</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
         <v>1002</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
         <v>1326</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
         <v>1720</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
         <v>2182</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
         <v>2696</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B23">
         <v>3434</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B24">
         <v>4089</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B25">
         <v>4858</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B26">
         <v>5690</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B27">
         <v>6528</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B28">
         <v>7340</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B29">
         <v>8189</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B30">
         <v>9053</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B31">
         <v>10003</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B32">
         <v>10935</v>
       </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
+      <c r="A33" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B33">
         <v>11744</v>
       </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
+      <c r="A34" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B34">
         <v>12418</v>
       </c>
+      <c r="C34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
+      <c r="A35" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B35">
         <v>13055</v>
       </c>
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
+      <c r="A36" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B36">
         <v>13798</v>
       </c>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
+      <c r="A37" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B37">
         <v>14555</v>
       </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
+      <c r="A38" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B38">
         <v>15238</v>
       </c>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
+      <c r="A39" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B39">
         <v>15843</v>
       </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
+      <c r="A40" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B40">
         <f>15843+510</f>
         <v>16353</v>
       </c>
-      <c r="D40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
+      <c r="A41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>16972</v>
       </c>
       <c r="C41">
         <v>17027</v>
       </c>
+      <c r="D41" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
+      <c r="A42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C42">
         <v>17591</v>
       </c>
+      <c r="D42">
+        <v>17537</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
+      <c r="A43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C43">
         <v>18263</v>
       </c>
+      <c r="D43">
+        <v>18162</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
+      <c r="A44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C44">
         <v>18943</v>
       </c>
+      <c r="D44">
+        <v>18815</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
+      <c r="A45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C45">
         <v>19589</v>
+      </c>
+      <c r="D45">
+        <v>19440</v>
       </c>
     </row>
   </sheetData>
